--- a/Calculo_Murillo.xlsx
+++ b/Calculo_Murillo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Mi_destino_Murillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C80B69-7559-42C1-B2FC-D2A08AB2C346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF45080-4AAD-465D-80C2-4138BBB07E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF5551EE-4048-4865-97ED-5355DDAD99E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CÁLCULO DE LA NOTA</t>
   </si>
@@ -38,12 +38,15 @@
   <si>
     <t>TOTAL</t>
   </si>
+  <si>
+    <t>REDONDEADO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,19 +62,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -80,12 +153,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,53 +482,60 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>70</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <f>(B2*7)/100</f>
         <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <f>(B3*3)/100</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="6">
         <f>C2+C3</f>
         <v>5.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
         <f>ROUND(C4,0)</f>
         <v>6</v>
       </c>
